--- a/Completed Projects/Visa KHI Fit Out Project DMC Karachi/Additional Work/IPC-01 VISA Office Additional work.xlsx
+++ b/Completed Projects/Visa KHI Fit Out Project DMC Karachi/Additional Work/IPC-01 VISA Office Additional work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\Visa KHI Fit Out Project DMC Karachi\Additional Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Visa KHI Fit Out Project DMC Karachi\Additional Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D13A601-A4F1-4580-97E0-0E3328837BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02253A54-C977-4CF5-BAC1-6AE8BD22F058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -530,8 +530,8 @@
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -541,20 +541,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -613,7 +613,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,10 +622,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="2" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,7 +634,7 @@
     <xf numFmtId="3" fontId="6" fillId="3" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,13 +661,13 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,10 +679,10 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -698,7 +698,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,7 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -726,32 +726,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,9 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A96" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A101" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,37 +1130,37 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1194,7 +1194,7 @@
       <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="75" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1229,7 +1229,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <f>A9</f>
         <v>1</v>
@@ -1318,7 +1318,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="51">
         <f>A16</f>
         <v>2</v>
@@ -2638,12 +2638,12 @@
     </row>
     <row r="113" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
-      <c r="B113" s="77" t="s">
+      <c r="B113" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="78"/>
-      <c r="D113" s="78"/>
-      <c r="E113" s="79"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="80"/>
       <c r="F113" s="40">
         <f>SUM(F10:F112)</f>
         <v>2083700</v>
@@ -2662,15 +2662,15 @@
       <c r="M114" s="73"/>
     </row>
     <row r="115" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="80" t="s">
+      <c r="A115" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B115" s="80"/>
-      <c r="C115" s="80"/>
-      <c r="D115" s="80"/>
-      <c r="E115" s="80"/>
-      <c r="F115" s="80"/>
-      <c r="G115" s="80"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="81"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="81"/>
+      <c r="F115" s="81"/>
+      <c r="G115" s="81"/>
       <c r="M115" s="74"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
